--- a/3. Java16 Database Design.xlsx
+++ b/3. Java16 Database Design.xlsx
@@ -4373,8 +4373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/3. Java16 Database Design.xlsx
+++ b/3. Java16 Database Design.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Mô hình quan hệ" sheetId="6" r:id="rId3"/>
     <sheet name="RD - Xử lý" sheetId="8" r:id="rId4"/>
     <sheet name="Mô hình quan hệ - Cơ sở dữ liệu" sheetId="7" r:id="rId5"/>
+    <sheet name="English" sheetId="9" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="271">
   <si>
     <t>HoTen</t>
   </si>
@@ -711,6 +712,144 @@
   </si>
   <si>
     <t>B14</t>
+  </si>
+  <si>
+    <t>EMPLOYEE</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ADDRESS</t>
+  </si>
+  <si>
+    <t>STARTING_TIME</t>
+  </si>
+  <si>
+    <t>ITEM_GROUP</t>
+  </si>
+  <si>
+    <t>DESC</t>
+  </si>
+  <si>
+    <t>ITEM</t>
+  </si>
+  <si>
+    <t>COLOR</t>
+  </si>
+  <si>
+    <t>BUY_PRICE</t>
+  </si>
+  <si>
+    <t>SELL_PRICE</t>
+  </si>
+  <si>
+    <t>METERIAL</t>
+  </si>
+  <si>
+    <t>ITEM_GROUP_ID</t>
+  </si>
+  <si>
+    <t>PROVIDER_ID</t>
+  </si>
+  <si>
+    <t>SIZE</t>
+  </si>
+  <si>
+    <t>ITEM_DETAIL</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>SIZE_ID</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>PROVIDER</t>
+  </si>
+  <si>
+    <t>PHONE</t>
+  </si>
+  <si>
+    <t>ORDER</t>
+  </si>
+  <si>
+    <t>ORDER_TIME</t>
+  </si>
+  <si>
+    <t>TotalOfMoney</t>
+  </si>
+  <si>
+    <t>DELIVERY_FEE</t>
+  </si>
+  <si>
+    <t>DELIVERY_PLACE</t>
+  </si>
+  <si>
+    <t>CUSTOMER_ID</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE</t>
+  </si>
+  <si>
+    <t>PAYMENT_TYPE_ID</t>
+  </si>
+  <si>
+    <t>ORDER_DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER_ID</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_DETAIL</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS</t>
+  </si>
+  <si>
+    <t>ORDER_STATUS_ID</t>
+  </si>
+  <si>
+    <t>EMPLOYEE_ID</t>
+  </si>
+  <si>
+    <t>STATUS_TIME</t>
+  </si>
+  <si>
+    <t>BILL</t>
+  </si>
+  <si>
+    <t>ORDR_ID</t>
+  </si>
+  <si>
+    <t>CREATED_DATE</t>
+  </si>
+  <si>
+    <t>PROVIDER_ITEM_INFO</t>
+  </si>
+  <si>
+    <t>PROVIDING_TIME</t>
+  </si>
+  <si>
+    <t>REMANINING_FEE</t>
+  </si>
+  <si>
+    <t>CUSTOMER</t>
+  </si>
+  <si>
+    <t>ACCOUNT</t>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+  </si>
+  <si>
+    <t>WORKING_MEHOD</t>
   </si>
 </sst>
 </file>
@@ -4373,8 +4512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4901,4 +5040,539 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:P42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="10" width="22.77734375" customWidth="1"/>
+    <col min="11" max="11" width="24.21875" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" customWidth="1"/>
+    <col min="13" max="14" width="22.77734375" customWidth="1"/>
+    <col min="15" max="15" width="26.109375" customWidth="1"/>
+    <col min="16" max="16" width="17.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C15" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="K16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="L16" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="M16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="N16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="O16" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="P16" s="34" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="17" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="G17" s="35" t="s">
+        <v>242</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>241</v>
+      </c>
+      <c r="K17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="L17" s="35" t="s">
+        <v>258</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="N17" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="K18" s="5"/>
+      <c r="L18" s="35" t="s">
+        <v>259</v>
+      </c>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="O18" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C19" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="20" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C20" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="O20" s="5"/>
+      <c r="P20" s="5" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
+      <c r="O21" s="5"/>
+      <c r="P21" s="5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="36" t="s">
+        <v>237</v>
+      </c>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="50"/>
+    </row>
+    <row r="23" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="36" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="50"/>
+    </row>
+    <row r="24" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="50"/>
+    </row>
+    <row r="25" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="50"/>
+    </row>
+    <row r="26" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="12"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="7"/>
+      <c r="N26" s="7"/>
+      <c r="O26" s="3"/>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+      <c r="E32" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E33" t="s">
+        <v>23</v>
+      </c>
+      <c r="F33" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="F34" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>45</v>
+      </c>
+      <c r="G35" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E36">
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>66</v>
+      </c>
+      <c r="G36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E39" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E40">
+        <v>1</v>
+      </c>
+      <c r="F40" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/3. Java16 Database Design.xlsx
+++ b/3. Java16 Database Design.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508A6B84-52B7-4D55-A701-BE55E8E516EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="5"/>
+    <workbookView xWindow="8550" yWindow="135" windowWidth="13095" windowHeight="10575" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Mô hình quan niệm" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="270">
   <si>
     <t>HoTen</t>
   </si>
@@ -747,9 +748,6 @@
     <t>SELL_PRICE</t>
   </si>
   <si>
-    <t>METERIAL</t>
-  </si>
-  <si>
     <t>ITEM_GROUP_ID</t>
   </si>
   <si>
@@ -825,9 +823,6 @@
     <t>BILL</t>
   </si>
   <si>
-    <t>ORDR_ID</t>
-  </si>
-  <si>
     <t>CREATED_DATE</t>
   </si>
   <si>
@@ -849,13 +844,16 @@
     <t>PASSWORD</t>
   </si>
   <si>
-    <t>WORKING_MEHOD</t>
+    <t>MATERIAL</t>
+  </si>
+  <si>
+    <t>WORKING_METHOD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1071,7 +1069,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,39 +1087,31 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1134,19 +1124,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1155,12 +1132,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,12 +1167,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1210,9 +1175,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1230,15 +1192,11 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1252,10 +1210,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1546,28 +1504,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B16" sqref="B16:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="23" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="23" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -1585,7 +1543,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1603,8 +1561,8 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
+    <row r="3" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
@@ -1631,10 +1589,10 @@
       <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="2"/>
@@ -1643,7 +1601,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1683,7 +1641,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
@@ -1699,7 +1657,7 @@
       <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -1723,7 +1681,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1761,7 +1719,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -1797,13 +1755,13 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
@@ -1823,7 +1781,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>16</v>
       </c>
@@ -1849,7 +1807,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -1871,7 +1829,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -1879,7 +1837,7 @@
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5"/>
@@ -1893,7 +1851,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -1915,7 +1873,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
@@ -1935,18 +1893,18 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="12" t="s">
+    <row r="14" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
@@ -1955,16 +1913,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
       <c r="L15" s="2"/>
@@ -1973,18 +1931,18 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="13" t="s">
+    <row r="16" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="2"/>
@@ -1993,74 +1951,73 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="13" t="s">
+    <row r="17" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="K17" s="3"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="7"/>
-      <c r="K19" s="7"/>
+    <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
+    <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
@@ -2069,7 +2026,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2086,7 +2043,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2098,14 +2055,14 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2113,29 +2070,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView topLeftCell="A8" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B19" sqref="B19:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="23" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="23" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2153,7 +2110,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2171,9 +2128,8 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2197,10 +2153,10 @@
       <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="2"/>
@@ -2209,8 +2165,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2247,8 +2202,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2261,7 +2215,7 @@
       <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2285,8 +2239,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2321,8 +2274,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -2355,13 +2307,12 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
@@ -2381,8 +2332,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
@@ -2405,8 +2355,8 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -2427,15 +2377,15 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5"/>
@@ -2449,8 +2399,8 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -2471,8 +2421,8 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
@@ -2491,18 +2441,18 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="12" t="s">
+    <row r="14" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
@@ -2511,16 +2461,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
         <v>36</v>
       </c>
@@ -2537,18 +2487,18 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="5">
         <v>1</v>
       </c>
@@ -2565,22 +2515,22 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -2593,20 +2543,20 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7" t="s">
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="5">
         <v>2</v>
       </c>
@@ -2623,24 +2573,24 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17" t="s">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="5">
         <v>2</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -2653,18 +2603,18 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17" t="s">
+    <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
@@ -2673,7 +2623,7 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -2690,7 +2640,7 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -2704,8 +2654,8 @@
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="23" t="s">
+    <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E23" s="19" t="s">
         <v>46</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -2717,49 +2667,49 @@
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I23" s="23" t="s">
+      <c r="I23" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="J23" s="23" t="s">
+      <c r="J23" s="19" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E24" s="20">
+    <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E24" s="16">
         <v>1</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20">
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16">
         <v>123456</v>
       </c>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E25" s="21">
+      <c r="J24" s="16"/>
+    </row>
+    <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E25" s="17">
         <v>2</v>
       </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="21"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21">
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17">
         <v>252525</v>
       </c>
-      <c r="J25" s="21"/>
-    </row>
-    <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-    </row>
-    <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+      <c r="J25" s="17"/>
+    </row>
+    <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+    </row>
+    <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -2767,29 +2717,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="G3" sqref="G3:G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="3" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" customWidth="1"/>
-    <col min="7" max="7" width="18.77734375" customWidth="1"/>
-    <col min="8" max="8" width="21.5546875" customWidth="1"/>
-    <col min="9" max="9" width="23.33203125" customWidth="1"/>
-    <col min="10" max="10" width="29.77734375" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" customWidth="1"/>
-    <col min="12" max="14" width="18.77734375" customWidth="1"/>
-    <col min="15" max="23" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="5" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" customWidth="1"/>
+    <col min="8" max="8" width="21.5703125" customWidth="1"/>
+    <col min="9" max="9" width="23.28515625" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" customWidth="1"/>
+    <col min="12" max="14" width="18.7109375" customWidth="1"/>
+    <col min="15" max="23" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2807,7 +2757,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2825,9 +2775,8 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="8" t="s">
+    <row r="3" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -2851,10 +2800,10 @@
       <c r="I3" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="J3" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="7" t="s">
         <v>55</v>
       </c>
       <c r="L3" s="2"/>
@@ -2863,8 +2812,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
+    <row r="4" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>8</v>
       </c>
@@ -2901,8 +2849,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
+    <row r="5" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
@@ -2915,7 +2862,7 @@
       <c r="E5" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="8" t="s">
         <v>44</v>
       </c>
       <c r="G5" s="5" t="s">
@@ -2939,8 +2886,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="11"/>
+    <row r="6" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -2975,8 +2921,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
@@ -3009,13 +2954,12 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="11"/>
+    <row r="8" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="5"/>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="5"/>
@@ -3035,8 +2979,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="11"/>
+    <row r="9" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
@@ -3059,8 +3002,8 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
+    <row r="10" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -3081,15 +3024,15 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="7"/>
+    <row r="11" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
         <v>30</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="8" t="s">
         <v>50</v>
       </c>
       <c r="G11" s="5"/>
@@ -3103,8 +3046,8 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
+    <row r="12" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5" t="s">
@@ -3125,8 +3068,8 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7"/>
+    <row r="13" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5" t="s">
@@ -3145,18 +3088,18 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="12" t="s">
+    <row r="14" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
       <c r="L14" s="2"/>
@@ -3165,16 +3108,16 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
+    <row r="15" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
       <c r="J15" s="5" t="s">
         <v>36</v>
       </c>
@@ -3191,18 +3134,18 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="15" t="s">
+    <row r="16" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3"/>
+      <c r="B16" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
       <c r="J16" s="5">
         <v>1</v>
       </c>
@@ -3219,22 +3162,22 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="7"/>
-      <c r="B17" s="15" t="s">
+    <row r="17" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3"/>
+      <c r="B17" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
       <c r="J17" s="5">
         <v>1</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="K17" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L17" s="2" t="s">
@@ -3247,18 +3190,18 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="7"/>
-      <c r="B18" s="15" t="s">
+    <row r="18" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3"/>
+      <c r="B18" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
       <c r="J18" s="5">
         <v>2</v>
       </c>
@@ -3275,22 +3218,22 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="15" t="s">
+    <row r="19" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
       <c r="J19" s="5">
         <v>2</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="K19" s="3" t="s">
         <v>65</v>
       </c>
       <c r="L19" s="2" t="s">
@@ -3303,18 +3246,18 @@
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
     </row>
-    <row r="20" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="15" t="s">
+    <row r="20" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="3"/>
+      <c r="B20" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
       <c r="L20" s="2"/>
@@ -3323,19 +3266,19 @@
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
     </row>
-    <row r="21" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="33" t="s">
+      <c r="B21" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="24"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="25"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="25"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
       <c r="K21" s="3"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
@@ -3343,155 +3286,151 @@
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
     </row>
-    <row r="22" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="26"/>
-      <c r="J22" s="26"/>
+      <c r="C22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
       <c r="K22" s="4"/>
     </row>
-    <row r="23" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="29" t="s">
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
-    </row>
-    <row r="24" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
+    </row>
+    <row r="24" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C24" s="28" t="s">
+      <c r="C24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D24" s="28" t="s">
+      <c r="D24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E24" s="28"/>
+      <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="G24" s="28" t="s">
+      <c r="G24" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="H24" s="28" t="s">
+      <c r="H24" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="I24" s="28"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="2">
         <v>1</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="E25" s="28"/>
+      <c r="E25" s="2"/>
       <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="28" t="s">
+      <c r="G25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H25" s="28" t="s">
+      <c r="H25" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="I25" s="28"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <v>2</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="28"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="2">
         <v>2</v>
       </c>
-      <c r="G26" s="28" t="s">
+      <c r="G26" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H26" s="28" t="s">
+      <c r="H26" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <v>3</v>
       </c>
-      <c r="C27" s="28" t="s">
+      <c r="C27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="D27" s="28" t="s">
+      <c r="D27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="19"/>
       <c r="F27" s="2">
         <v>3</v>
       </c>
-      <c r="G27" s="28" t="s">
+      <c r="G27" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H27" s="28" t="s">
+      <c r="H27" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-    </row>
-    <row r="28" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="30">
+    </row>
+    <row r="28" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="22">
         <v>2</v>
       </c>
-      <c r="G28" s="28" t="s">
+      <c r="G28" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="H28" s="28" t="s">
+      <c r="H28" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="29" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F29" s="30">
+    <row r="29" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F29" s="21">
         <v>1</v>
       </c>
-      <c r="G29" s="32" t="s">
+      <c r="G29" s="21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:16" ht="19.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:16" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -3499,16 +3438,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="C2:AH43"/>
   <sheetViews>
     <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:23" x14ac:dyDescent="0.25">
       <c r="S2" t="s">
         <v>175</v>
       </c>
@@ -3516,7 +3455,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:23" x14ac:dyDescent="0.25">
       <c r="S3" t="s">
         <v>129</v>
       </c>
@@ -3527,913 +3466,910 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>179</v>
       </c>
       <c r="J5" t="s">
         <v>180</v>
       </c>
-      <c r="R5" s="42" t="s">
+      <c r="R5" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="S5" s="38" t="s">
+      <c r="S5" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="T5" s="39" t="s">
+      <c r="T5" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U5" s="39" t="s">
+      <c r="U5" s="28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J6" t="s">
         <v>181</v>
       </c>
-      <c r="S6" s="38" t="s">
+      <c r="S6" s="27" t="s">
         <v>118</v>
       </c>
-      <c r="T6" s="39" t="s">
+      <c r="T6" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U6" s="39" t="s">
+      <c r="U6" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J7" t="s">
         <v>182</v>
       </c>
-      <c r="S7" s="38" t="s">
+      <c r="S7" s="27" t="s">
         <v>113</v>
       </c>
-      <c r="T7" s="39" t="s">
+      <c r="T7" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U7" s="39" t="s">
+      <c r="U7" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J8" t="s">
         <v>183</v>
       </c>
-      <c r="S8" s="38" t="s">
+      <c r="S8" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="T8" s="39" t="s">
+      <c r="T8" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U8" s="39" t="s">
+      <c r="U8" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="9" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:23" x14ac:dyDescent="0.25">
       <c r="J9" t="s">
         <v>184</v>
       </c>
-      <c r="S9" s="40" t="s">
+      <c r="S9" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="41" t="s">
+      <c r="T9" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="U9" s="41" t="s">
+      <c r="U9" s="30" t="s">
         <v>77</v>
       </c>
       <c r="V9" s="2" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="11" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="12" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="13" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="E13" s="71" t="s">
+    <row r="13" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E13" s="55" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="71"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="71"/>
-      <c r="J13" s="71"/>
-      <c r="K13" s="71"/>
-      <c r="L13" s="71"/>
-      <c r="M13" s="71"/>
-      <c r="N13" s="71"/>
-      <c r="O13" s="71"/>
-      <c r="R13" s="42" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
+      <c r="K13" s="55"/>
+      <c r="L13" s="55"/>
+      <c r="M13" s="55"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="55"/>
+      <c r="R13" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="S13" s="38" t="s">
+      <c r="S13" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T13" s="39" t="s">
+      <c r="T13" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="U13" s="39" t="s">
+      <c r="U13" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="V13" s="43" t="s">
+      <c r="V13" s="32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="E14" s="61" t="s">
+    <row r="14" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="61"/>
       <c r="N14" t="s">
         <v>190</v>
       </c>
-      <c r="S14" s="38" t="s">
+      <c r="S14" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="T14" s="39" t="s">
+      <c r="T14" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U14" s="39" t="s">
+      <c r="U14" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="V14" s="43" t="s">
+      <c r="V14" s="32" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="15" spans="3:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:23" x14ac:dyDescent="0.25">
       <c r="N15" t="s">
         <v>191</v>
       </c>
-      <c r="S15" s="38" t="s">
+      <c r="S15" s="27" t="s">
         <v>119</v>
       </c>
-      <c r="T15" s="39" t="s">
+      <c r="T15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U15" s="39" t="s">
+      <c r="U15" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="V15" s="43" t="s">
+      <c r="V15" s="32" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="C16" s="42" t="s">
+    <row r="16" spans="3:23" x14ac:dyDescent="0.25">
+      <c r="C16" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="G16" s="42" t="s">
+      <c r="G16" s="31" t="s">
         <v>97</v>
       </c>
-      <c r="H16" s="42"/>
+      <c r="H16" s="31"/>
       <c r="N16" t="s">
         <v>192</v>
       </c>
-      <c r="S16" s="38" t="s">
+      <c r="S16" s="27" t="s">
         <v>120</v>
       </c>
-      <c r="T16" s="39" t="s">
+      <c r="T16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="U16" s="39" t="s">
+      <c r="U16" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="V16" s="43" t="s">
+      <c r="V16" s="32" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C17" s="49" t="s">
+    <row r="17" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="39" t="s">
+      <c r="D17" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="39" t="s">
+      <c r="E17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="49" t="s">
+      <c r="G17" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="49" t="s">
+      <c r="H17" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="I17" s="39" t="s">
+      <c r="I17" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="J17" s="39" t="s">
+      <c r="J17" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="K17" s="39" t="s">
+      <c r="K17" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="L17" s="39" t="s">
+      <c r="L17" s="28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="18" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C18" s="39" t="s">
+    <row r="18" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C18" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="D18" s="39" t="s">
+      <c r="D18" s="28" t="s">
         <v>194</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="28">
         <v>20</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H18" s="39" t="s">
+      <c r="H18" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="39"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="39"/>
-      <c r="L18" s="39">
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28">
         <v>10</v>
       </c>
-      <c r="T18" s="44" t="s">
+      <c r="T18" s="33" t="s">
         <v>53</v>
       </c>
-      <c r="U18" s="45"/>
-      <c r="V18" s="45"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="34"/>
       <c r="W18" s="1"/>
     </row>
-    <row r="19" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C19" s="39" t="s">
+    <row r="19" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C19" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="D19" s="39" t="s">
+      <c r="D19" s="28" t="s">
         <v>196</v>
       </c>
-      <c r="E19" s="39">
+      <c r="E19" s="28">
         <v>30</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="28" t="s">
         <v>193</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
-      <c r="L19" s="39">
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28">
         <v>20</v>
       </c>
-      <c r="P19" s="72" t="s">
+      <c r="P19" s="56" t="s">
         <v>50</v>
       </c>
-      <c r="Q19" s="72"/>
-      <c r="T19" s="39" t="s">
+      <c r="Q19" s="56"/>
+      <c r="T19" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="U19" s="39" t="s">
+      <c r="U19" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="V19" s="39" t="s">
+      <c r="V19" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="W19" s="39" t="s">
+      <c r="W19" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C20" s="39" t="s">
+    <row r="20" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C20" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="D20" s="39" t="s">
+      <c r="D20" s="28" t="s">
         <v>198</v>
       </c>
-      <c r="E20" s="39">
+      <c r="E20" s="28">
         <v>60</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="H20" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="39">
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28">
         <v>20</v>
       </c>
-      <c r="P20" s="39" t="s">
+      <c r="P20" s="28" t="s">
         <v>121</v>
       </c>
-      <c r="Q20" s="70" t="s">
+      <c r="Q20" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="R20" s="70"/>
-      <c r="T20" s="39" t="s">
+      <c r="R20" s="54"/>
+      <c r="T20" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="U20" s="39">
+      <c r="U20" s="28">
         <v>1</v>
       </c>
-      <c r="V20" s="39" t="s">
+      <c r="V20" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="W20" s="39" t="s">
+      <c r="W20" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="G21" s="39" t="s">
+    <row r="21" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="G21" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H21" s="39" t="s">
+      <c r="H21" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
-      <c r="L21" s="39">
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28">
         <v>15</v>
       </c>
-      <c r="P21" s="39">
+      <c r="P21" s="28">
         <v>1</v>
       </c>
-      <c r="Q21" s="70" t="s">
+      <c r="Q21" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="R21" s="70"/>
-      <c r="T21" s="39" t="s">
+      <c r="R21" s="54"/>
+      <c r="T21" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="U21" s="39">
+      <c r="U21" s="28">
         <v>2</v>
       </c>
-      <c r="V21" s="39" t="s">
+      <c r="V21" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="W21" s="39" t="s">
+      <c r="W21" s="28" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C22" s="46" t="s">
+    <row r="22" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C22" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="G22" s="39" t="s">
+      <c r="G22" s="28" t="s">
         <v>195</v>
       </c>
-      <c r="H22" s="39" t="s">
+      <c r="H22" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="39"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="39"/>
-      <c r="L22" s="39">
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28">
         <v>16</v>
       </c>
-      <c r="P22" s="39">
+      <c r="P22" s="28">
         <v>2</v>
       </c>
-      <c r="Q22" s="70" t="s">
+      <c r="Q22" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="R22" s="70"/>
-      <c r="T22" s="39" t="s">
+      <c r="R22" s="54"/>
+      <c r="T22" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="U22" s="39">
+      <c r="U22" s="28">
         <v>3</v>
       </c>
-      <c r="V22" s="39" t="s">
+      <c r="V22" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="W22" s="39" t="s">
+      <c r="W22" s="28" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C23" s="49" t="s">
+    <row r="23" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C23" s="36" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="39" t="s">
+      <c r="D23" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="E23" s="62"/>
-      <c r="G23" s="39" t="s">
+      <c r="E23" s="1"/>
+      <c r="G23" s="28" t="s">
         <v>197</v>
       </c>
-      <c r="H23" s="39" t="s">
+      <c r="H23" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
-      <c r="L23" s="39">
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28">
         <v>22</v>
       </c>
-      <c r="P23" s="39">
+      <c r="P23" s="28">
         <v>3</v>
       </c>
-      <c r="Q23" s="70" t="s">
+      <c r="Q23" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="R23" s="70"/>
-      <c r="T23" s="39"/>
-      <c r="U23" s="39"/>
-      <c r="V23" s="39"/>
-      <c r="W23" s="39"/>
-    </row>
-    <row r="24" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C24" s="39" t="s">
+      <c r="R23" s="54"/>
+      <c r="T23" s="28"/>
+      <c r="U23" s="28"/>
+      <c r="V23" s="28"/>
+      <c r="W23" s="28"/>
+    </row>
+    <row r="24" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C24" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D24" s="28" t="s">
         <v>199</v>
       </c>
-      <c r="E24" s="62"/>
-      <c r="P24" s="39">
+      <c r="E24" s="1"/>
+      <c r="P24" s="28">
         <v>4</v>
       </c>
-      <c r="Q24" s="70" t="s">
+      <c r="Q24" s="54" t="s">
         <v>125</v>
       </c>
-      <c r="R24" s="70"/>
-      <c r="T24" s="39" t="s">
+      <c r="R24" s="54"/>
+      <c r="T24" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="U24" s="39">
+      <c r="U24" s="28">
         <v>1</v>
       </c>
-      <c r="V24" s="39" t="s">
+      <c r="V24" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="W24" s="39" t="s">
+      <c r="W24" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C25" s="39" t="s">
+    <row r="25" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C25" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="D25" s="39" t="s">
+      <c r="D25" s="28" t="s">
         <v>200</v>
       </c>
-      <c r="E25" s="62"/>
-    </row>
-    <row r="26" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C26" s="39" t="s">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C26" s="28" t="s">
         <v>103</v>
       </c>
-      <c r="D26" s="39" t="s">
+      <c r="D26" s="28" t="s">
         <v>201</v>
       </c>
-      <c r="E26" s="62"/>
-    </row>
-    <row r="28" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="P28" s="46" t="s">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="28" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="P28" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="T28" s="47" t="s">
+      <c r="T28" s="33" t="s">
         <v>127</v>
       </c>
-      <c r="U28" s="47"/>
-      <c r="X28" s="47" t="s">
+      <c r="U28" s="33"/>
+      <c r="X28" s="33" t="s">
         <v>128</v>
       </c>
-      <c r="Y28" s="47"/>
-      <c r="AA28" s="42" t="s">
+      <c r="Y28" s="33"/>
+      <c r="AA28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AD28" s="48" t="s">
+      <c r="AD28" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="AF28" s="42" t="s">
+      <c r="AF28" s="31" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="29" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C29" s="46" t="s">
+    <row r="29" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C29" s="34" t="s">
         <v>126</v>
       </c>
-      <c r="H29" s="46" t="s">
+      <c r="H29" s="34" t="s">
         <v>202</v>
       </c>
-      <c r="J29" s="63" t="s">
+      <c r="J29" s="47" t="s">
         <v>77</v>
       </c>
-      <c r="P29" s="49" t="s">
+      <c r="P29" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="Q29" s="39" t="s">
+      <c r="Q29" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="R29" s="50" t="s">
+      <c r="R29" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="T29" s="51" t="s">
+      <c r="T29" s="38" t="s">
         <v>133</v>
       </c>
-      <c r="U29" s="51" t="s">
+      <c r="U29" s="38" t="s">
         <v>130</v>
       </c>
-      <c r="V29" s="52" t="s">
+      <c r="V29" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="X29" s="49" t="s">
+      <c r="X29" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="Y29" s="39" t="s">
+      <c r="Y29" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="AA29" s="53" t="s">
+      <c r="AA29" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="AB29" s="39" t="s">
+      <c r="AB29" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AC29" s="39" t="s">
+      <c r="AC29" s="28" t="s">
         <v>116</v>
       </c>
-      <c r="AD29" s="54" t="s">
+      <c r="AD29" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="AF29" s="53" t="s">
+      <c r="AF29" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="AG29" s="39" t="s">
+      <c r="AG29" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="AH29" s="39" t="s">
+      <c r="AH29" s="28" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C30" s="49" t="s">
+    <row r="30" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C30" s="36" t="s">
         <v>130</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="E30" s="39" t="s">
+      <c r="E30" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="48" t="s">
         <v>203</v>
       </c>
-      <c r="H30" s="49" t="s">
+      <c r="H30" s="36" t="s">
         <v>133</v>
       </c>
-      <c r="I30" s="39" t="s">
+      <c r="I30" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="J30" s="65" t="s">
+      <c r="J30" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="K30" s="66" t="s">
+      <c r="K30" s="50" t="s">
         <v>204</v>
       </c>
-      <c r="L30" s="66"/>
-      <c r="M30" s="66"/>
-      <c r="P30" s="39" t="s">
+      <c r="L30" s="50"/>
+      <c r="M30" s="50"/>
+      <c r="P30" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="Q30" s="39" t="s">
+      <c r="Q30" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="R30" s="50">
+      <c r="R30" s="37">
         <v>7.8</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="T30" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="U30" s="41" t="s">
+      <c r="U30" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="V30" s="41">
+      <c r="V30" s="30">
         <v>5</v>
       </c>
-      <c r="X30" s="39" t="s">
+      <c r="X30" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="Y30" s="39" t="s">
+      <c r="Y30" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="AA30" s="55" t="s">
+      <c r="AA30" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="AB30" s="56" t="s">
+      <c r="AB30" s="42" t="s">
         <v>139</v>
       </c>
-      <c r="AC30" s="39">
+      <c r="AC30" s="28">
         <v>225</v>
       </c>
-      <c r="AD30" s="55" t="s">
+      <c r="AD30" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AF30" s="55" t="s">
+      <c r="AF30" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="AG30" s="56" t="s">
+      <c r="AG30" s="42" t="s">
         <v>141</v>
       </c>
-      <c r="AH30" s="39" t="s">
+      <c r="AH30" s="28" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="31" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C31" s="39" t="s">
+    <row r="31" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C31" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D31" s="39" t="s">
+      <c r="D31" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E31" s="39">
+      <c r="E31" s="28">
         <v>8</v>
       </c>
-      <c r="F31" s="39" t="s">
+      <c r="F31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="K31" s="68" t="s">
+      <c r="K31" s="52" t="s">
         <v>205</v>
       </c>
-      <c r="L31" s="69"/>
-      <c r="M31" s="66"/>
-      <c r="P31" s="39" t="s">
+      <c r="L31" s="53"/>
+      <c r="M31" s="50"/>
+      <c r="P31" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="Q31" s="39" t="s">
+      <c r="Q31" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="R31" s="50">
+      <c r="R31" s="37">
         <v>8</v>
       </c>
-      <c r="T31" s="41" t="s">
+      <c r="T31" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="U31" s="41" t="s">
+      <c r="U31" s="30" t="s">
         <v>143</v>
       </c>
-      <c r="V31" s="41">
+      <c r="V31" s="30">
         <v>6</v>
       </c>
-      <c r="X31" s="39" t="s">
+      <c r="X31" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="Y31" s="39" t="s">
+      <c r="Y31" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="AA31" s="55" t="s">
+      <c r="AA31" s="41" t="s">
         <v>119</v>
       </c>
-      <c r="AB31" s="56" t="s">
+      <c r="AB31" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="AC31" s="39">
+      <c r="AC31" s="28">
         <v>0</v>
       </c>
-      <c r="AD31" s="55" t="s">
+      <c r="AD31" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AF31" s="55" t="s">
+      <c r="AF31" s="41" t="s">
         <v>147</v>
       </c>
-      <c r="AG31" s="56" t="s">
+      <c r="AG31" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="AH31" s="39" t="s">
+      <c r="AH31" s="28" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="32" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C32" s="39" t="s">
+    <row r="32" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C32" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D32" s="39" t="s">
+      <c r="D32" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="39">
+      <c r="E32" s="28">
         <v>6</v>
       </c>
-      <c r="F32" s="39" t="s">
+      <c r="F32" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="H32" s="39" t="s">
+      <c r="H32" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="I32" s="39" t="s">
+      <c r="I32" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="J32" s="67" t="s">
+      <c r="J32" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="P32" s="39" t="s">
+      <c r="P32" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="Q32" s="39" t="s">
+      <c r="Q32" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="R32" s="50">
+      <c r="R32" s="37">
         <v>9.5</v>
       </c>
-      <c r="T32" s="41" t="s">
+      <c r="T32" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="U32" s="41" t="s">
+      <c r="U32" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="V32" s="41">
+      <c r="V32" s="30">
         <v>7</v>
       </c>
-      <c r="X32" s="39" t="s">
+      <c r="X32" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="Y32" s="39" t="s">
+      <c r="Y32" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="AA32" s="55" t="s">
+      <c r="AA32" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="AB32" s="56" t="s">
+      <c r="AB32" s="42" t="s">
         <v>153</v>
       </c>
-      <c r="AC32" s="39">
+      <c r="AC32" s="28">
         <v>125</v>
       </c>
-      <c r="AD32" s="55" t="s">
+      <c r="AD32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AF32" s="55" t="s">
+      <c r="AF32" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="AG32" s="56" t="s">
+      <c r="AG32" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="AH32" s="39" t="s">
+      <c r="AH32" s="28" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="33" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C33" s="39" t="s">
+    <row r="33" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C33" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D33" s="39" t="s">
+      <c r="D33" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="E33" s="39">
+      <c r="E33" s="28">
         <v>9</v>
       </c>
-      <c r="F33" s="39" t="s">
+      <c r="F33" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="J33" s="67" t="s">
+      <c r="J33" s="51" t="s">
         <v>136</v>
       </c>
-      <c r="P33" s="39" t="s">
+      <c r="P33" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="Q33" s="39" t="s">
+      <c r="Q33" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="R33" s="50">
+      <c r="R33" s="37">
         <v>2</v>
       </c>
-      <c r="T33" s="41" t="s">
+      <c r="T33" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="U33" s="41" t="s">
+      <c r="U33" s="30" t="s">
         <v>150</v>
       </c>
-      <c r="V33" s="41">
+      <c r="V33" s="30">
         <v>5</v>
       </c>
-      <c r="AA33" s="55" t="s">
+      <c r="AA33" s="41" t="s">
         <v>159</v>
       </c>
-      <c r="AB33" s="56" t="s">
+      <c r="AB33" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="AC33" s="39">
+      <c r="AC33" s="28">
         <v>220</v>
       </c>
-      <c r="AD33" s="55" t="s">
+      <c r="AD33" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="AF33" s="55" t="s">
+      <c r="AF33" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="AG33" s="56" t="s">
+      <c r="AG33" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="AH33" s="39" t="s">
+      <c r="AH33" s="28" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="34" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C34" s="39" t="s">
+    <row r="34" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C34" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="D34" s="39" t="s">
+      <c r="D34" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="E34" s="39">
+      <c r="E34" s="28">
         <v>7</v>
       </c>
-      <c r="F34" s="38" t="s">
+      <c r="F34" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="P34" s="39" t="s">
+      <c r="P34" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="Q34" s="39" t="s">
+      <c r="Q34" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="R34" s="50">
+      <c r="R34" s="37">
         <v>4.5999999999999996</v>
       </c>
-      <c r="T34" s="57" t="s">
+      <c r="T34" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="U34" s="57" t="s">
+      <c r="U34" s="43" t="s">
         <v>143</v>
       </c>
-      <c r="V34" s="41">
+      <c r="V34" s="30">
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C35" s="39" t="s">
+    <row r="35" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C35" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="D35" s="39" t="s">
+      <c r="D35" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="E35" s="39">
+      <c r="E35" s="28">
         <v>7</v>
       </c>
-      <c r="F35" s="39" t="s">
+      <c r="F35" s="28" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="37" spans="3:34" x14ac:dyDescent="0.3">
-      <c r="C37" s="58" t="s">
+    <row r="37" spans="3:34" x14ac:dyDescent="0.25">
+      <c r="C37" s="44" t="s">
         <v>207</v>
       </c>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="P37" s="58" t="s">
+      <c r="D37" s="45"/>
+      <c r="E37" s="45"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="45"/>
+      <c r="H37" s="45"/>
+      <c r="I37" s="45"/>
+      <c r="J37" s="45"/>
+      <c r="K37" s="45"/>
+      <c r="L37" s="45"/>
+      <c r="P37" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="Q37" s="59"/>
-      <c r="R37" s="59"/>
-      <c r="S37" s="59"/>
-      <c r="T37" s="59"/>
-      <c r="U37" s="59"/>
-      <c r="V37" s="59"/>
-      <c r="AA37" s="59" t="s">
+      <c r="Q37" s="45"/>
+      <c r="R37" s="45"/>
+      <c r="S37" s="45"/>
+      <c r="T37" s="45"/>
+      <c r="U37" s="45"/>
+      <c r="V37" s="45"/>
+      <c r="AA37" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="AB37" s="59"/>
-      <c r="AC37" s="59"/>
-      <c r="AD37" s="59"/>
-      <c r="AE37" s="59"/>
-      <c r="AF37" s="59"/>
-      <c r="AG37" s="59"/>
-    </row>
-    <row r="38" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="AB37" s="45"/>
+      <c r="AC37" s="45"/>
+      <c r="AD37" s="45"/>
+      <c r="AE37" s="45"/>
+      <c r="AF37" s="45"/>
+      <c r="AG37" s="45"/>
+    </row>
+    <row r="38" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C38" t="s">
         <v>208</v>
       </c>
@@ -4444,7 +4380,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="39" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C39" t="s">
         <v>209</v>
       </c>
@@ -4455,7 +4391,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C40" t="s">
         <v>210</v>
       </c>
@@ -4466,7 +4402,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="41" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C41" t="s">
         <v>168</v>
       </c>
@@ -4474,22 +4410,22 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="3:34" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
         <v>170</v>
       </c>
-      <c r="AA42" s="60" t="s">
+      <c r="AA42" s="46" t="s">
         <v>174</v>
       </c>
-      <c r="AB42" s="60"/>
-      <c r="AC42" s="60"/>
-      <c r="AD42" s="60"/>
-      <c r="AE42" s="60"/>
-      <c r="AF42" s="60"/>
-      <c r="AG42" s="60"/>
-      <c r="AH42" s="60"/>
-    </row>
-    <row r="43" spans="3:34" x14ac:dyDescent="0.3">
+      <c r="AB42" s="46"/>
+      <c r="AC42" s="46"/>
+      <c r="AD42" s="46"/>
+      <c r="AE42" s="46"/>
+      <c r="AF42" s="46"/>
+      <c r="AG42" s="46"/>
+      <c r="AH42" s="46"/>
+    </row>
+    <row r="43" spans="3:34" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
         <v>172</v>
       </c>
@@ -4509,74 +4445,74 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:P42"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C15" sqref="C15:G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
-    <col min="13" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" customWidth="1"/>
+    <col min="3" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>211</v>
       </c>
@@ -4620,8 +4556,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -4648,7 +4584,7 @@
       <c r="K15" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="7" t="s">
         <v>53</v>
       </c>
       <c r="M15" s="6" t="s">
@@ -4657,58 +4593,58 @@
       <c r="N15" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="7" t="s">
         <v>112</v>
       </c>
       <c r="P15" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C16" s="34" t="s">
+    <row r="16" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="D16" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="E16" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="F16" s="23" t="s">
         <v>96</v>
       </c>
-      <c r="G16" s="35" t="s">
+      <c r="G16" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="34" t="s">
+      <c r="I16" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="35" t="s">
+      <c r="J16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="K16" s="34" t="s">
+      <c r="K16" s="23" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="35" t="s">
+      <c r="L16" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="23" t="s">
         <v>5</v>
       </c>
       <c r="O16" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="23" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
@@ -4721,7 +4657,7 @@
       <c r="F17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="35" t="s">
+      <c r="G17" s="24" t="s">
         <v>96</v>
       </c>
       <c r="H17" s="5" t="s">
@@ -4730,19 +4666,19 @@
       <c r="I17" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="J17" s="35" t="s">
+      <c r="J17" s="24" t="s">
         <v>23</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="L17" s="35" t="s">
+      <c r="L17" s="24" t="s">
         <v>51</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="N17" s="37" t="s">
+      <c r="N17" s="26" t="s">
         <v>37</v>
       </c>
       <c r="O17" s="5" t="s">
@@ -4752,7 +4688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>3</v>
       </c>
@@ -4776,7 +4712,7 @@
         <v>27</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="35" t="s">
+      <c r="L18" s="24" t="s">
         <v>8</v>
       </c>
       <c r="M18" s="5"/>
@@ -4790,7 +4726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>10</v>
       </c>
@@ -4822,7 +4758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>16</v>
       </c>
@@ -4830,8 +4766,8 @@
       <c r="E20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
         <v>109</v>
@@ -4845,7 +4781,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
@@ -4854,7 +4790,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="37" t="s">
+      <c r="I21" s="26" t="s">
         <v>46</v>
       </c>
       <c r="J21" s="5"/>
@@ -4866,16 +4802,16 @@
         <v>48</v>
       </c>
     </row>
-    <row r="22" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="36" t="s">
+      <c r="E22" s="25" t="s">
         <v>19</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="37" t="s">
+      <c r="I22" s="26" t="s">
         <v>107</v>
       </c>
       <c r="J22" s="5"/>
@@ -4884,27 +4820,27 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="50"/>
-    </row>
-    <row r="23" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P22" s="37"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="25" t="s">
         <v>34</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="50"/>
-    </row>
-    <row r="24" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -4917,9 +4853,9 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="50"/>
-    </row>
-    <row r="25" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -4933,29 +4869,29 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="50"/>
-    </row>
-    <row r="26" spans="3:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>23</v>
       </c>
@@ -4966,7 +4902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>1</v>
       </c>
@@ -4977,7 +4913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>2</v>
       </c>
@@ -4988,7 +4924,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>3</v>
       </c>
@@ -4999,12 +4935,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>23</v>
       </c>
@@ -5012,7 +4948,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>1</v>
       </c>
@@ -5020,7 +4956,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>1</v>
       </c>
@@ -5028,7 +4964,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>1</v>
       </c>
@@ -5043,74 +4979,75 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:P42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="L13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="10" width="22.77734375" customWidth="1"/>
-    <col min="11" max="11" width="24.21875" customWidth="1"/>
-    <col min="12" max="12" width="32.6640625" customWidth="1"/>
-    <col min="13" max="14" width="22.77734375" customWidth="1"/>
-    <col min="15" max="15" width="26.109375" customWidth="1"/>
-    <col min="16" max="16" width="17.88671875" customWidth="1"/>
+    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="22.7109375" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="12" max="12" width="32.7109375" customWidth="1"/>
+    <col min="13" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="26.140625" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="13" spans="2:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>211</v>
       </c>
@@ -5154,8 +5091,8 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C15" s="8" t="s">
+    <row r="15" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C15" s="7" t="s">
         <v>225</v>
       </c>
       <c r="D15" s="6" t="s">
@@ -5165,84 +5102,84 @@
         <v>232</v>
       </c>
       <c r="F15" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="G15" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="H15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="G16" s="24" t="s">
         <v>240</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="H16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="J16" s="24" t="s">
         <v>254</v>
       </c>
-      <c r="K15" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="L15" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="M15" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="O15" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="16" spans="2:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C16" s="34" t="s">
+      <c r="K16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="D16" s="34" t="s">
+      <c r="L16" s="24" t="s">
+        <v>254</v>
+      </c>
+      <c r="M16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="E16" s="34" t="s">
+      <c r="N16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="O16" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="P16" s="23" t="s">
         <v>226</v>
       </c>
-      <c r="G16" s="35" t="s">
-        <v>241</v>
-      </c>
-      <c r="H16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="I16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="J16" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="L16" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="M16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="N16" s="34" t="s">
-        <v>226</v>
-      </c>
-      <c r="O16" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="P16" s="34" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="17" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>227</v>
       </c>
@@ -5255,38 +5192,38 @@
       <c r="F17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="G17" s="35" t="s">
-        <v>242</v>
+      <c r="G17" s="24" t="s">
+        <v>241</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>227</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>241</v>
+        <v>246</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>240</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="L17" s="35" t="s">
-        <v>258</v>
+      <c r="L17" s="24" t="s">
+        <v>257</v>
       </c>
       <c r="M17" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="N17" s="37" t="s">
-        <v>262</v>
+      <c r="N17" s="26" t="s">
+        <v>254</v>
       </c>
       <c r="O17" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="P17" s="5" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="18" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>228</v>
       </c>
@@ -5298,33 +5235,33 @@
       </c>
       <c r="F18" s="5"/>
       <c r="G18" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H18" s="5" t="s">
         <v>228</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="35" t="s">
-        <v>259</v>
+      <c r="L18" s="24" t="s">
+        <v>258</v>
       </c>
       <c r="M18" s="5"/>
       <c r="N18" s="5" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="O18" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P18" s="5" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>229</v>
       </c>
@@ -5335,40 +5272,40 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
       <c r="L19" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M19" s="5"/>
       <c r="N19" s="5" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="O19" s="5" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="20" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D20" s="5"/>
       <c r="E20" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="5"/>
       <c r="I20" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -5376,20 +5313,20 @@
       <c r="M20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="5" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="21" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5" t="s">
-        <v>236</v>
+        <v>268</v>
       </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="37" t="s">
-        <v>251</v>
+      <c r="I21" s="26" t="s">
+        <v>250</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -5398,20 +5335,20 @@
       <c r="N21" s="5"/>
       <c r="O21" s="5"/>
       <c r="P21" s="5" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="22" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="36" t="s">
-        <v>237</v>
+      <c r="E22" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="37" t="s">
-        <v>253</v>
+      <c r="I22" s="26" t="s">
+        <v>252</v>
       </c>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -5419,27 +5356,27 @@
       <c r="M22" s="5"/>
       <c r="N22" s="5"/>
       <c r="O22" s="5"/>
-      <c r="P22" s="50"/>
-    </row>
-    <row r="23" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P22" s="37"/>
+    </row>
+    <row r="23" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
-      <c r="E23" s="36" t="s">
-        <v>238</v>
+      <c r="E23" s="25" t="s">
+        <v>237</v>
       </c>
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
-      <c r="P23" s="50"/>
-    </row>
-    <row r="24" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P23" s="37"/>
+    </row>
+    <row r="24" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="F24" s="5"/>
@@ -5452,9 +5389,9 @@
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
-      <c r="P24" s="50"/>
-    </row>
-    <row r="25" spans="3:16" ht="18" x14ac:dyDescent="0.3">
+      <c r="P24" s="37"/>
+    </row>
+    <row r="25" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -5468,29 +5405,29 @@
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
       <c r="O25" s="5"/>
-      <c r="P25" s="50"/>
-    </row>
-    <row r="26" spans="3:16" ht="18" x14ac:dyDescent="0.3">
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7"/>
-      <c r="K26" s="7"/>
+      <c r="P25" s="37"/>
+    </row>
+    <row r="26" spans="3:16" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="7"/>
-      <c r="N26" s="7"/>
+      <c r="M26" s="3"/>
+      <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:16" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E33" t="s">
         <v>23</v>
       </c>
@@ -5501,7 +5438,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E34">
         <v>1</v>
       </c>
@@ -5512,7 +5449,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E35">
         <v>2</v>
       </c>
@@ -5523,7 +5460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E36">
         <v>3</v>
       </c>
@@ -5534,12 +5471,12 @@
         <v>102</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
         <v>23</v>
       </c>
@@ -5547,7 +5484,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E40">
         <v>1</v>
       </c>
@@ -5555,7 +5492,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E41">
         <v>1</v>
       </c>
@@ -5563,7 +5500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E42">
         <v>1</v>
       </c>
